--- a/with logs for unschedule with saturday sunday/excel_schedules/room_310_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/room_310_genetic_schedule.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="23">
     <fill>
       <patternFill/>
     </fill>
@@ -37,6 +37,126 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD700"/>
+        <bgColor rgb="00FFD700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA07A"/>
+        <bgColor rgb="00FFA07A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0020B2AA"/>
+        <bgColor rgb="0020B2AA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009370DB"/>
+        <bgColor rgb="009370DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F08080"/>
+        <bgColor rgb="00F08080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E0FFFF"/>
+        <bgColor rgb="00E0FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFE4E1"/>
+        <bgColor rgb="00FFE4E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B0E0E6"/>
+        <bgColor rgb="00B0E0E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF6347"/>
+        <bgColor rgb="00FF6347"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004682B4"/>
+        <bgColor rgb="004682B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D2B48C"/>
+        <bgColor rgb="00D2B48C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009ACD32"/>
+        <bgColor rgb="009ACD32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0040E0D0"/>
+        <bgColor rgb="0040E0D0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF69B4"/>
+        <bgColor rgb="00FF69B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CD5C5C"/>
+        <bgColor rgb="00CD5C5C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000CED1"/>
+        <bgColor rgb="0000CED1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001E90FF"/>
+        <bgColor rgb="001E90FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -79,12 +199,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,6 +698,46 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>IS 212 - Professional Issues in Information System
+2C
+Room 310
+Emp: 4</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>B2 ITE 111 - Introduction to Computing
+1B
+Room 310
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>B1 IS 213 - IT Infrastructure &amp; Network Technologies
+2B
+Room 310
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>B2 ITE 215 - Installation of Hardware and Software
+2B
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>C2 ITE 215 - Installation of Hardware and Software
+2B
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="50" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -525,6 +745,11 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="5" t="n"/>
+      <c r="E3" s="6" t="n"/>
+      <c r="F3" s="7" t="n"/>
     </row>
     <row r="4" ht="50" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -532,13 +757,11 @@
           <t>9:00 AM - 9:30 AM</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>IT 326 - IOT Applications
-2A
-Room 310</t>
-        </is>
-      </c>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="5" t="n"/>
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="7" t="n"/>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -546,7 +769,38 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
-      <c r="H5" s="2" t="n"/>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>A1 ITE 111 - Introduction to Computing
+1A
+Room 310
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>B1 ITE 215 - Installation of Hardware and Software
+2B
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="E5" s="10" t="inlineStr">
+        <is>
+          <t>B1 ITE 111 - Introduction to Computing
+1B
+Room 310
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="F5" s="11" t="inlineStr">
+        <is>
+          <t>C1 ITE 215 - Installation of Hardware and Software
+2C
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -554,7 +808,18 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="H6" s="2" t="n"/>
+      <c r="B6" s="8" t="n"/>
+      <c r="C6" s="9" t="n"/>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>A1 ITE 111 - Introduction to Computing
+1A
+Room 310
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="E6" s="10" t="n"/>
+      <c r="F6" s="11" t="n"/>
     </row>
     <row r="7" ht="50" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -562,7 +827,11 @@
           <t>10:30 AM - 11:00 AM</t>
         </is>
       </c>
-      <c r="H7" s="2" t="n"/>
+      <c r="B7" s="8" t="n"/>
+      <c r="C7" s="9" t="n"/>
+      <c r="D7" s="8" t="n"/>
+      <c r="E7" s="10" t="n"/>
+      <c r="F7" s="11" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -570,6 +839,7 @@
           <t>11:00 AM - 11:30 AM</t>
         </is>
       </c>
+      <c r="D8" s="8" t="n"/>
     </row>
     <row r="9" ht="50" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -598,6 +868,46 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
+      <c r="B12" s="12" t="inlineStr">
+        <is>
+          <t>A2 IS 314 - Web Based Programming and Application
+3A
+Room 310
+Emp: 8</t>
+        </is>
+      </c>
+      <c r="C12" s="13" t="inlineStr">
+        <is>
+          <t>A2 ITE 111 - Introduction to Computing
+1A
+Room 310
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>B2 ITE 111 - Introduction to Computing
+1B
+Room 310
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="E12" s="14" t="inlineStr">
+        <is>
+          <t>A1 ITE 215 - Installation of Hardware and Software
+2A
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="F12" s="15" t="inlineStr">
+        <is>
+          <t>B2 ITE 211 - Data Structures and Algorithm
+2B
+Room 310
+Emp: 9</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="50" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -605,6 +915,11 @@
           <t>1:30 PM - 2:00 PM</t>
         </is>
       </c>
+      <c r="B13" s="12" t="n"/>
+      <c r="C13" s="13" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="14" t="n"/>
+      <c r="F13" s="15" t="n"/>
     </row>
     <row r="14" ht="50" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -612,6 +927,11 @@
           <t>2:00 PM - 2:30 PM</t>
         </is>
       </c>
+      <c r="B14" s="12" t="n"/>
+      <c r="C14" s="13" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="14" t="n"/>
+      <c r="F14" s="15" t="n"/>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -619,6 +939,30 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
+      <c r="B15" s="14" t="inlineStr">
+        <is>
+          <t>A1 ITE 215 - Installation of Hardware and Software
+2A
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="C15" s="16" t="inlineStr">
+        <is>
+          <t>A2 ITE 215 - Installation of Hardware and Software
+2A
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="E15" s="16" t="inlineStr">
+        <is>
+          <t>A2 ITE 215 - Installation of Hardware and Software
+2A
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -626,6 +970,9 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
+      <c r="B16" s="14" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="E16" s="16" t="n"/>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -633,6 +980,17 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
+      <c r="B17" s="14" t="n"/>
+      <c r="C17" s="16" t="n"/>
+      <c r="D17" s="11" t="inlineStr">
+        <is>
+          <t>C1 ITE 215 - Installation of Hardware and Software
+2C
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="E17" s="16" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -640,6 +998,7 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
+      <c r="D18" s="11" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -647,6 +1006,7 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
+      <c r="D19" s="11" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -661,6 +1021,46 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
+      <c r="B21" s="17" t="inlineStr">
+        <is>
+          <t>A1 ITE 311 - Systems Analysis &amp; Design
+3A
+Room 310
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="C21" s="18" t="inlineStr">
+        <is>
+          <t>A2 IS 411 - CAPSTONE PROJECT 2
+4A
+Room 310
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="D21" s="17" t="inlineStr">
+        <is>
+          <t>A1 ITE 311 - Systems Analysis &amp; Design
+3A
+Room 310
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="E21" s="19" t="inlineStr">
+        <is>
+          <t>A2 ITE 311 - Systems Analysis &amp; Design
+3A
+Room 310
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>B1 IS 213 - IT Infrastructure &amp; Network Technologies
+2B
+Room 310
+Emp: 2</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="50" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -668,6 +1068,11 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
+      <c r="B22" s="17" t="n"/>
+      <c r="C22" s="18" t="n"/>
+      <c r="D22" s="17" t="n"/>
+      <c r="E22" s="19" t="n"/>
+      <c r="F22" s="5" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -675,6 +1080,11 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
+      <c r="B23" s="17" t="n"/>
+      <c r="C23" s="18" t="n"/>
+      <c r="D23" s="17" t="n"/>
+      <c r="E23" s="19" t="n"/>
+      <c r="F23" s="5" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -682,6 +1092,46 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
+      <c r="B24" s="20" t="inlineStr">
+        <is>
+          <t>C1 IS 213 - IT Infrastructure &amp; Network Technologies
+2C
+Room 310
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="C24" s="21" t="inlineStr">
+        <is>
+          <t>A2 IS 213 - IT Infrastructure &amp; Network Technologies
+2A
+Room 310
+Emp: 2</t>
+        </is>
+      </c>
+      <c r="D24" s="19" t="inlineStr">
+        <is>
+          <t>A2 ITE 311 - Systems Analysis &amp; Design
+3A
+Room 310
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="E24" s="18" t="inlineStr">
+        <is>
+          <t>A2 IS 411 - CAPSTONE PROJECT 2
+4A
+Room 310
+Emp: 1</t>
+        </is>
+      </c>
+      <c r="F24" s="22" t="inlineStr">
+        <is>
+          <t>A1 IS 411 - CAPSTONE PROJECT 2
+4A
+Room 310
+Emp: 1</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -689,6 +1139,11 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
+      <c r="B25" s="20" t="n"/>
+      <c r="C25" s="21" t="n"/>
+      <c r="D25" s="19" t="n"/>
+      <c r="E25" s="18" t="n"/>
+      <c r="F25" s="22" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -696,6 +1151,11 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
+      <c r="B26" s="20" t="n"/>
+      <c r="C26" s="21" t="n"/>
+      <c r="D26" s="19" t="n"/>
+      <c r="E26" s="18" t="n"/>
+      <c r="F26" s="22" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -705,8 +1165,36 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H4:H7"/>
+  <mergeCells count="29">
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
